--- a/RC/77_lab/77_lab.xlsx
+++ b/RC/77_lab/77_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIPT-MIPS\Labs\RC\77_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AA800-B06F-4A99-9381-DBBF89597864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43707E2A-711E-4BDD-8C7F-21F78FE4B424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{41B5BEF1-4378-46C2-969D-218BE0B31F8A}"/>
   </bookViews>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +385,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D3:D12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,6 +414,10 @@
         <f>1000*C3</f>
         <v>50</v>
       </c>
+      <c r="F3">
+        <f>LOG10(E3)</f>
+        <v>1.6989700043360187</v>
+      </c>
       <c r="I3">
         <v>10</v>
       </c>
@@ -437,8 +437,12 @@
         <v>81.727196613494968</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="1">1000*C4</f>
+        <f>1000*C4</f>
         <v>100</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F12" si="1">LOG10(E4)</f>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>50</v>
@@ -459,8 +463,12 @@
         <v>75.986810989071628</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E12" si="2">1000*C5</f>
         <v>200</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.3010299956639813</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -481,8 +489,12 @@
         <v>68.130803608679102</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.6989700043360187</v>
       </c>
       <c r="I6">
         <v>200</v>
@@ -503,8 +515,12 @@
         <v>62.041810510236736</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>500</v>
@@ -525,8 +541,12 @@
         <v>56.069142312968275</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>3.3010299956639813</v>
       </c>
       <c r="I8">
         <v>1000</v>
@@ -547,8 +567,12 @@
         <v>48.19866246662589</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>3.6989700043360187</v>
       </c>
       <c r="I9">
         <v>2000</v>
@@ -569,8 +593,12 @@
         <v>42.211794205984972</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>5000</v>
@@ -591,8 +619,12 @@
         <v>36.258267132857107</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20000</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.3010299956639813</v>
       </c>
       <c r="I11">
         <v>10000</v>
@@ -613,8 +645,12 @@
         <v>28.627275283179749</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>4.6989700043360187</v>
       </c>
       <c r="I12">
         <v>20000</v>
